--- a/Excel Documents/ETRANSPORTATION_MARKETPLACE_DB_FOR_IMPORT.xlsx
+++ b/Excel Documents/ETRANSPORTATION_MARKETPLACE_DB_FOR_IMPORT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CONS\Desktop\coursework Software design and analysis\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CONS\Desktop\coursework Software design and analysis\Database_Design_Git\Excel Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098C771B-5E67-4BAA-8303-35756C8D8B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFCBB19-8160-43E5-B729-7DFFF07D8A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7512" yWindow="0" windowWidth="14352" windowHeight="14400" tabRatio="979" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7380" yWindow="0" windowWidth="14532" windowHeight="14400" tabRatio="979" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&lt;USER&gt;" sheetId="1" r:id="rId1"/>
@@ -1167,14 +1167,14 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" customWidth="1"/>
     <col min="3" max="3" width="16.44140625" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" customWidth="1"/>
     <col min="5" max="5" width="39.6640625" customWidth="1"/>
